--- a/[2] 구현/Java/TransCompiler_for_beginner_Java_Requirement.xlsx
+++ b/[2] 구현/Java/TransCompiler_for_beginner_Java_Requirement.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seoil\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\5462s\Desktop\Folder\Seoil-Univercity\[2022 2학년 2학기]\Term 프로젝트\TransCompiler for beginner\[2] 구현\Java\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D5A0C0-87C3-40DD-832F-FD1B8791BD19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항 정의서" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="64">
   <si>
     <t>요구사항 정의서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -197,10 +198,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sample</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>작성자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -233,10 +230,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sample</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>O</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -258,14 +251,46 @@
   </si>
   <si>
     <t>Title Here</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202210080001A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내부구조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 입력받은 코드가 Java 일경우 Java 코드를 C#으로 변환한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 전송받은 C# 코드를 Java 코드로 변환한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   ㄴ 변환 규칙 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 ~ 4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,15 +325,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1" tint="0.499984740745262"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="14"/>
       <color theme="1" tint="0.499984740745262"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -316,9 +334,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1" tint="0.499984740745262"/>
+      <sz val="11"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -583,7 +599,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -596,9 +612,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -641,35 +654,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -683,7 +687,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -698,22 +702,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -995,14 +999,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="7.75" style="1" customWidth="1"/>
@@ -1013,250 +1015,258 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="29" t="s">
+    <row r="2" spans="2:6" ht="17.25" thickBot="1"/>
+    <row r="3" spans="2:6">
+      <c r="B3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="31"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="32"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="34"/>
-    </row>
-    <row r="5" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="35"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="37"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="38" t="s">
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="27"/>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="28"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="30"/>
+    </row>
+    <row r="5" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B5" s="31"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="33"/>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="36"/>
+    </row>
+    <row r="8" spans="2:6" s="2" customFormat="1">
+      <c r="B8" s="37"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="39"/>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="12">
+        <v>0</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="40"/>
-    </row>
-    <row r="8" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="41"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="43"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="15" t="s">
+      <c r="E12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="12">
+        <v>2</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="12">
+        <v>3</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="12">
         <v>4</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="15" t="s">
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="12">
+        <v>5</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="12">
+        <v>6</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="12">
         <v>7</v>
       </c>
-      <c r="E10" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="13">
-        <v>0</v>
-      </c>
-      <c r="C11" s="13" t="s">
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="12">
+        <v>8</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="12">
+        <v>9</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="12">
+        <v>10</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="12">
+        <v>11</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="12">
+        <v>12</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="12">
+        <v>13</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="12">
+        <v>14</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="12">
+        <v>15</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="12">
         <v>16</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="13">
-        <v>1</v>
-      </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="13">
-        <v>2</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="13">
-        <v>3</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="13">
-        <v>4</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="13">
-        <v>5</v>
-      </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="13">
-        <v>6</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="13">
-        <v>7</v>
-      </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="13">
-        <v>8</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="13">
-        <v>9</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="13">
-        <v>10</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="13">
-        <v>11</v>
-      </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="13">
-        <v>12</v>
-      </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="6"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="13">
-        <v>13</v>
-      </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="6"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="13">
-        <v>14</v>
-      </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="6"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="13">
-        <v>15</v>
-      </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="6"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="13">
-        <v>16</v>
-      </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="6"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="13">
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="12">
         <v>17</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="6"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="13">
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="12">
         <v>18</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="6"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="14">
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="13">
         <v>19</v>
       </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="9"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1270,14 +1280,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15.25" style="1" bestFit="1" customWidth="1"/>
@@ -1287,141 +1295,117 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="2:5" s="2" customFormat="1">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="C2" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="2:5">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="5"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="5"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="5"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="5"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="5"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="5"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="5"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="5"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="5"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="5"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="5"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="5"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="5"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="5"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="5"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="5"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="5"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="9"/>
+    <row r="4" spans="2:5">
+      <c r="B4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="4"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="4"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="4"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="4"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="4"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="4"/>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="4"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="4"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="4"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="4"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="4"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="4"/>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="4"/>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="4"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="4"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="4"/>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1431,14 +1415,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="9" style="1"/>
     <col min="3" max="3" width="29.625" style="1" bestFit="1" customWidth="1"/>
@@ -1446,237 +1430,217 @@
     <col min="5" max="5" width="136.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="2:6" s="3" customFormat="1">
+      <c r="B2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="12"/>
+      <c r="E2" s="11"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="27">
+    <row r="3" spans="2:6" s="1" customFormat="1">
+      <c r="B3" s="19">
         <v>1</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="20" t="s">
         <v>27</v>
       </c>
       <c r="F3"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="5"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
+    <row r="4" spans="2:6">
+      <c r="B4" s="4"/>
+      <c r="D4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="5"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="17" t="s">
+    <row r="5" spans="2:6">
+      <c r="B5" s="4"/>
+      <c r="E5" s="16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="5"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
+    <row r="6" spans="2:6">
+      <c r="B6" s="4"/>
+      <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="5"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
+    <row r="7" spans="2:6">
+      <c r="B7" s="4"/>
+      <c r="D7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="5"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4" t="s">
+    <row r="8" spans="2:6">
+      <c r="B8" s="4"/>
+      <c r="D8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="5"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="17"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="5">
+    <row r="9" spans="2:6">
+      <c r="B9" s="4"/>
+      <c r="E9" s="16"/>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="4">
         <v>2</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="5"/>
+    <row r="11" spans="2:6">
+      <c r="B11" s="4"/>
       <c r="D11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="5"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="4"/>
+      <c r="D12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="5"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4" t="s">
+    <row r="13" spans="2:6">
+      <c r="B13" s="4"/>
+      <c r="D13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="5"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="17"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="5">
+    <row r="14" spans="2:6">
+      <c r="B14" s="4"/>
+      <c r="E14" s="16"/>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="4">
         <v>3</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="5"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4" t="s">
+    <row r="16" spans="2:6">
+      <c r="B16" s="4"/>
+      <c r="D16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="5"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4" t="s">
+    <row r="17" spans="2:5">
+      <c r="B17" s="4"/>
+      <c r="D17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="5"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="17"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="5">
+    <row r="18" spans="2:5">
+      <c r="B18" s="4"/>
+      <c r="E18" s="16"/>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="4">
         <v>4</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="17"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="5"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4" t="s">
+      <c r="E19" s="16"/>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="4"/>
+      <c r="D20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="5"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4" t="s">
+      <c r="E20" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="4"/>
+      <c r="D21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="5"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4" t="s">
+      <c r="E21" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="4"/>
+      <c r="D22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="4"/>
+      <c r="D23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="17" t="s">
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="6"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="17" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="5"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1686,14 +1650,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="7.125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.375" style="1" bestFit="1" customWidth="1"/>
@@ -1702,277 +1666,265 @@
     <col min="7" max="7" width="15.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="2:7" s="2" customFormat="1">
+      <c r="B2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="11" t="s">
+      <c r="E2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="21" t="s">
+    <row r="3" spans="2:7" s="23" customFormat="1">
+      <c r="B3" s="21">
+        <v>1</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="21">
+        <v>3</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="4">
+        <v>4</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="21">
+        <v>5</v>
+      </c>
+      <c r="G7" s="16"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="4">
+        <v>6</v>
+      </c>
+      <c r="G8" s="16"/>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="21">
+        <v>7</v>
+      </c>
+      <c r="G9" s="16"/>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="4">
+        <v>8</v>
+      </c>
+      <c r="G10" s="16"/>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="21">
+        <v>9</v>
+      </c>
+      <c r="G11" s="16"/>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="4">
+        <v>10</v>
+      </c>
+      <c r="G12" s="16"/>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="21">
+        <v>11</v>
+      </c>
+      <c r="G13" s="16"/>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="4">
+        <v>12</v>
+      </c>
+      <c r="G14" s="16"/>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="21">
+        <v>13</v>
+      </c>
+      <c r="G15" s="16"/>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="4">
+        <v>14</v>
+      </c>
+      <c r="G16" s="16"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="21">
+        <v>15</v>
+      </c>
+      <c r="G17" s="16"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="4">
+        <v>16</v>
+      </c>
+      <c r="G18" s="16"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="21">
+        <v>17</v>
+      </c>
+      <c r="G19" s="16"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="4">
+        <v>18</v>
+      </c>
+      <c r="G20" s="16"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="21">
+        <v>19</v>
+      </c>
+      <c r="G21" s="16"/>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="4">
+        <v>20</v>
+      </c>
+      <c r="G22" s="16"/>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="21">
+        <v>21</v>
+      </c>
+      <c r="G23" s="16"/>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="4">
         <v>22</v>
       </c>
-      <c r="G3" s="23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="5"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="17"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="5"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="17"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="5"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="17"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="5"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="17"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="5"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="17"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="5"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="17"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="5"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="17"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="5"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="17"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="5"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="17"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="5"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="17"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="5"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="17"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="5"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="17"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="5"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="17"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="5"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="17"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="5"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="17"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="5"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="17"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="5"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="17"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="5"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="17"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="5"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="17"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="5"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="17"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="5"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="17"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="5"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="17"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="5"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="17"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="5"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="17"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="5"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="17"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B29" s="5"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="17"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B30" s="5"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="17"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B31" s="5"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="17"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B32" s="7"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="18"/>
+      <c r="G24" s="16"/>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="21">
+        <v>23</v>
+      </c>
+      <c r="G25" s="16"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="4">
+        <v>24</v>
+      </c>
+      <c r="G26" s="16"/>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="21">
+        <v>25</v>
+      </c>
+      <c r="G27" s="16"/>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="4">
+        <v>26</v>
+      </c>
+      <c r="G28" s="16"/>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="21">
+        <v>27</v>
+      </c>
+      <c r="G29" s="16"/>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="4">
+        <v>28</v>
+      </c>
+      <c r="G30" s="16"/>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="21">
+        <v>29</v>
+      </c>
+      <c r="G31" s="16"/>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="4">
+        <v>30</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
